--- a/lab3/car/car_tests/Cases.xlsx
+++ b/lab3/car/car_tests/Cases.xlsx
@@ -1,8 +1,13 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4505"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="14420"/>
   <workbookPr defaultThemeVersion="124226"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\PS\OOP\OOP2016\lab3\car\car_tests\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
   <bookViews>
     <workbookView xWindow="480" yWindow="345" windowWidth="19815" windowHeight="7665"/>
   </bookViews>
@@ -61,8 +66,8 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <fonts count="19">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <fonts count="19" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -578,24 +583,24 @@
     <xf numFmtId="0" fontId="18" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="42">
-    <cellStyle name="20% - Акцент1" xfId="19" builtinId="30" customBuiltin="1"/>
-    <cellStyle name="20% - Акцент2" xfId="23" builtinId="34" customBuiltin="1"/>
-    <cellStyle name="20% - Акцент3" xfId="27" builtinId="38" customBuiltin="1"/>
-    <cellStyle name="20% - Акцент4" xfId="31" builtinId="42" customBuiltin="1"/>
-    <cellStyle name="20% - Акцент5" xfId="35" builtinId="46" customBuiltin="1"/>
-    <cellStyle name="20% - Акцент6" xfId="39" builtinId="50" customBuiltin="1"/>
-    <cellStyle name="40% - Акцент1" xfId="20" builtinId="31" customBuiltin="1"/>
-    <cellStyle name="40% - Акцент2" xfId="24" builtinId="35" customBuiltin="1"/>
-    <cellStyle name="40% - Акцент3" xfId="28" builtinId="39" customBuiltin="1"/>
-    <cellStyle name="40% - Акцент4" xfId="32" builtinId="43" customBuiltin="1"/>
-    <cellStyle name="40% - Акцент5" xfId="36" builtinId="47" customBuiltin="1"/>
-    <cellStyle name="40% - Акцент6" xfId="40" builtinId="51" customBuiltin="1"/>
-    <cellStyle name="60% - Акцент1" xfId="21" builtinId="32" customBuiltin="1"/>
-    <cellStyle name="60% - Акцент2" xfId="25" builtinId="36" customBuiltin="1"/>
-    <cellStyle name="60% - Акцент3" xfId="29" builtinId="40" customBuiltin="1"/>
-    <cellStyle name="60% - Акцент4" xfId="33" builtinId="44" customBuiltin="1"/>
-    <cellStyle name="60% - Акцент5" xfId="37" builtinId="48" customBuiltin="1"/>
-    <cellStyle name="60% - Акцент6" xfId="41" builtinId="52" customBuiltin="1"/>
+    <cellStyle name="20% — акцент1" xfId="19" builtinId="30" customBuiltin="1"/>
+    <cellStyle name="20% — акцент2" xfId="23" builtinId="34" customBuiltin="1"/>
+    <cellStyle name="20% — акцент3" xfId="27" builtinId="38" customBuiltin="1"/>
+    <cellStyle name="20% — акцент4" xfId="31" builtinId="42" customBuiltin="1"/>
+    <cellStyle name="20% — акцент5" xfId="35" builtinId="46" customBuiltin="1"/>
+    <cellStyle name="20% — акцент6" xfId="39" builtinId="50" customBuiltin="1"/>
+    <cellStyle name="40% — акцент1" xfId="20" builtinId="31" customBuiltin="1"/>
+    <cellStyle name="40% — акцент2" xfId="24" builtinId="35" customBuiltin="1"/>
+    <cellStyle name="40% — акцент3" xfId="28" builtinId="39" customBuiltin="1"/>
+    <cellStyle name="40% — акцент4" xfId="32" builtinId="43" customBuiltin="1"/>
+    <cellStyle name="40% — акцент5" xfId="36" builtinId="47" customBuiltin="1"/>
+    <cellStyle name="40% — акцент6" xfId="40" builtinId="51" customBuiltin="1"/>
+    <cellStyle name="60% — акцент1" xfId="21" builtinId="32" customBuiltin="1"/>
+    <cellStyle name="60% — акцент2" xfId="25" builtinId="36" customBuiltin="1"/>
+    <cellStyle name="60% — акцент3" xfId="29" builtinId="40" customBuiltin="1"/>
+    <cellStyle name="60% — акцент4" xfId="33" builtinId="44" customBuiltin="1"/>
+    <cellStyle name="60% — акцент5" xfId="37" builtinId="48" customBuiltin="1"/>
+    <cellStyle name="60% — акцент6" xfId="41" builtinId="52" customBuiltin="1"/>
     <cellStyle name="Акцент1" xfId="18" builtinId="29" customBuiltin="1"/>
     <cellStyle name="Акцент2" xfId="22" builtinId="33" customBuiltin="1"/>
     <cellStyle name="Акцент3" xfId="26" builtinId="37" customBuiltin="1"/>
@@ -623,6 +628,14 @@
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
+    </ext>
+  </extLst>
 </styleSheet>
 </file>
 
@@ -669,7 +682,7 @@
     </a:clrScheme>
     <a:fontScheme name="Стандартная">
       <a:majorFont>
-        <a:latin typeface="Cambria"/>
+        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -701,9 +714,10 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri"/>
+        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -735,6 +749,7 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Стандартная">
@@ -910,14 +925,14 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:D37"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F5" sqref="F5"/>
+      <selection activeCell="A14" sqref="A14:D14"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="11.5703125" customWidth="1"/>
     <col min="2" max="2" width="14.42578125" customWidth="1"/>
@@ -925,7 +940,7 @@
     <col min="5" max="5" width="9.140625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4">
+    <row r="1" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A1" s="2" t="s">
         <v>13</v>
       </c>
@@ -939,7 +954,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="2" spans="1:4">
+    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A2" s="1">
         <v>1</v>
       </c>
@@ -953,7 +968,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="3" spans="1:4">
+    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A3">
         <v>2</v>
       </c>
@@ -967,7 +982,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="4" spans="1:4">
+    <row r="4" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A4">
         <v>3</v>
       </c>
@@ -981,35 +996,35 @@
         <v>4</v>
       </c>
     </row>
-    <row r="5" spans="1:4">
-      <c r="A5">
+    <row r="5" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A5" s="1">
         <v>4</v>
       </c>
-      <c r="B5" t="s">
+      <c r="B5" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="C5">
+      <c r="C5" s="1">
         <v>0</v>
       </c>
-      <c r="D5" t="s">
+      <c r="D5" s="1" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="6" spans="1:4">
-      <c r="A6">
+    <row r="6" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A6" s="1">
         <v>5</v>
       </c>
-      <c r="B6" t="s">
+      <c r="B6" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="C6">
+      <c r="C6" s="1">
         <v>1</v>
       </c>
-      <c r="D6" t="s">
+      <c r="D6" s="1" t="s">
         <v>7</v>
       </c>
     </row>
-    <row r="7" spans="1:4">
+    <row r="7" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A7">
         <v>6</v>
       </c>
@@ -1023,7 +1038,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="8" spans="1:4">
+    <row r="8" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A8">
         <v>7</v>
       </c>
@@ -1037,35 +1052,35 @@
         <v>7</v>
       </c>
     </row>
-    <row r="9" spans="1:4">
-      <c r="A9">
+    <row r="9" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A9" s="1">
         <v>8</v>
       </c>
-      <c r="B9" t="s">
+      <c r="B9" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="C9">
+      <c r="C9" s="1">
         <v>2</v>
       </c>
-      <c r="D9" t="s">
+      <c r="D9" s="1" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="10" spans="1:4">
-      <c r="A10">
+    <row r="10" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A10" s="1">
         <v>9</v>
       </c>
-      <c r="B10" t="s">
+      <c r="B10" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="C10">
+      <c r="C10" s="1">
         <v>3</v>
       </c>
-      <c r="D10" t="s">
+      <c r="D10" s="1" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="11" spans="1:4">
+    <row r="11" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A11">
         <v>10</v>
       </c>
@@ -1079,7 +1094,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="12" spans="1:4">
+    <row r="12" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A12">
         <v>11</v>
       </c>
@@ -1093,35 +1108,35 @@
         <v>4</v>
       </c>
     </row>
-    <row r="13" spans="1:4">
-      <c r="A13">
+    <row r="13" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A13" s="1">
         <v>12</v>
       </c>
-      <c r="B13" t="s">
+      <c r="B13" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="C13">
+      <c r="C13" s="1">
         <v>4</v>
       </c>
-      <c r="D13" t="s">
+      <c r="D13" s="1" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="14" spans="1:4">
-      <c r="A14">
+    <row r="14" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A14" s="1">
         <v>13</v>
       </c>
-      <c r="B14" t="s">
+      <c r="B14" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="C14">
+      <c r="C14" s="1">
         <v>5</v>
       </c>
-      <c r="D14" t="s">
+      <c r="D14" s="1" t="s">
         <v>7</v>
       </c>
     </row>
-    <row r="15" spans="1:4">
+    <row r="15" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A15">
         <v>14</v>
       </c>
@@ -1135,7 +1150,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="16" spans="1:4">
+    <row r="16" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A16">
         <v>15</v>
       </c>
@@ -1149,7 +1164,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="17" spans="1:4">
+    <row r="17" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A17">
         <v>16</v>
       </c>
@@ -1163,7 +1178,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="18" spans="1:4">
+    <row r="18" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A18">
         <v>17</v>
       </c>
@@ -1177,7 +1192,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="19" spans="1:4">
+    <row r="19" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A19">
         <v>18</v>
       </c>
@@ -1191,7 +1206,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="20" spans="1:4">
+    <row r="20" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A20">
         <v>19</v>
       </c>
@@ -1205,7 +1220,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="21" spans="1:4">
+    <row r="21" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A21">
         <v>20</v>
       </c>
@@ -1219,7 +1234,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="22" spans="1:4">
+    <row r="22" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A22">
         <v>21</v>
       </c>
@@ -1233,7 +1248,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="23" spans="1:4">
+    <row r="23" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A23">
         <v>22</v>
       </c>
@@ -1247,21 +1262,21 @@
         <v>8</v>
       </c>
     </row>
-    <row r="24" spans="1:4">
-      <c r="A24">
+    <row r="24" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A24" s="1">
         <v>23</v>
       </c>
-      <c r="B24" t="s">
+      <c r="B24" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="C24">
+      <c r="C24" s="1">
         <v>1</v>
       </c>
-      <c r="D24" t="s">
+      <c r="D24" s="1" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="25" spans="1:4">
+    <row r="25" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A25">
         <v>24</v>
       </c>
@@ -1275,7 +1290,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="26" spans="1:4">
+    <row r="26" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A26">
         <v>25</v>
       </c>
@@ -1289,7 +1304,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="27" spans="1:4">
+    <row r="27" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A27">
         <v>26</v>
       </c>
@@ -1303,7 +1318,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="28" spans="1:4">
+    <row r="28" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A28">
         <v>27</v>
       </c>
@@ -1317,7 +1332,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="29" spans="1:4">
+    <row r="29" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A29">
         <v>28</v>
       </c>
@@ -1331,7 +1346,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="30" spans="1:4">
+    <row r="30" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A30">
         <v>29</v>
       </c>
@@ -1345,7 +1360,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="31" spans="1:4">
+    <row r="31" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A31">
         <v>30</v>
       </c>
@@ -1359,7 +1374,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="32" spans="1:4">
+    <row r="32" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A32">
         <v>31</v>
       </c>
@@ -1373,7 +1388,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="33" spans="1:4">
+    <row r="33" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A33">
         <v>32</v>
       </c>
@@ -1387,7 +1402,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="34" spans="1:4">
+    <row r="34" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A34">
         <v>33</v>
       </c>
@@ -1401,7 +1416,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="35" spans="1:4">
+    <row r="35" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A35">
         <v>34</v>
       </c>
@@ -1415,7 +1430,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="36" spans="1:4">
+    <row r="36" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A36">
         <v>35</v>
       </c>
@@ -1429,7 +1444,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="37" spans="1:4">
+    <row r="37" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A37">
         <v>36</v>
       </c>

--- a/lab3/car/car_tests/Cases.xlsx
+++ b/lab3/car/car_tests/Cases.xlsx
@@ -230,7 +230,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="34">
+  <fills count="35">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -413,6 +413,12 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="6" tint="0.39997558519241921"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="0" tint="-0.249977111117893"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -577,10 +583,11 @@
     <xf numFmtId="0" fontId="1" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="17" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="33" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="18" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="34" borderId="0" xfId="0" applyFill="1"/>
   </cellXfs>
   <cellStyles count="42">
     <cellStyle name="20% — акцент1" xfId="19" builtinId="30" customBuiltin="1"/>
@@ -928,8 +935,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:D37"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A14" sqref="A14:D14"/>
+    <sheetView tabSelected="1" topLeftCell="A7" workbookViewId="0">
+      <selection activeCell="A18" sqref="A18:D18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1165,30 +1172,30 @@
       </c>
     </row>
     <row r="17" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A17">
+      <c r="A17" s="1">
         <v>16</v>
       </c>
-      <c r="B17" t="s">
+      <c r="B17" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="C17" t="s">
+      <c r="C17" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="D17" t="s">
+      <c r="D17" s="1" t="s">
         <v>8</v>
       </c>
     </row>
     <row r="18" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A18">
+      <c r="A18" s="1">
         <v>17</v>
       </c>
-      <c r="B18" t="s">
+      <c r="B18" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="C18" t="s">
+      <c r="C18" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="D18" t="s">
+      <c r="D18" s="1" t="s">
         <v>4</v>
       </c>
     </row>
@@ -1207,16 +1214,16 @@
       </c>
     </row>
     <row r="20" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A20">
+      <c r="A20" s="3">
         <v>19</v>
       </c>
-      <c r="B20" t="s">
+      <c r="B20" s="3" t="s">
         <v>11</v>
       </c>
-      <c r="C20">
+      <c r="C20" s="3">
         <v>-1</v>
       </c>
-      <c r="D20" t="s">
+      <c r="D20" s="3" t="s">
         <v>7</v>
       </c>
     </row>
@@ -1249,16 +1256,16 @@
       </c>
     </row>
     <row r="23" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A23">
+      <c r="A23" s="1">
         <v>22</v>
       </c>
-      <c r="B23" t="s">
+      <c r="B23" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="C23">
+      <c r="C23" s="1">
         <v>0</v>
       </c>
-      <c r="D23" t="s">
+      <c r="D23" s="1" t="s">
         <v>8</v>
       </c>
     </row>
@@ -1277,30 +1284,30 @@
       </c>
     </row>
     <row r="25" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A25">
+      <c r="A25" s="1">
         <v>24</v>
       </c>
-      <c r="B25" t="s">
+      <c r="B25" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="C25">
+      <c r="C25" s="1">
         <v>1</v>
       </c>
-      <c r="D25" t="s">
+      <c r="D25" s="1" t="s">
         <v>6</v>
       </c>
     </row>
     <row r="26" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A26">
+      <c r="A26" s="1">
         <v>25</v>
       </c>
-      <c r="B26" t="s">
+      <c r="B26" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="C26">
+      <c r="C26" s="1">
         <v>2</v>
       </c>
-      <c r="D26" t="s">
+      <c r="D26" s="1" t="s">
         <v>4</v>
       </c>
     </row>
@@ -1319,16 +1326,16 @@
       </c>
     </row>
     <row r="28" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A28">
+      <c r="A28" s="1">
         <v>27</v>
       </c>
-      <c r="B28" t="s">
+      <c r="B28" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="C28">
+      <c r="C28" s="1">
         <v>3</v>
       </c>
-      <c r="D28" t="s">
+      <c r="D28" s="1" t="s">
         <v>7</v>
       </c>
     </row>
@@ -1361,16 +1368,16 @@
       </c>
     </row>
     <row r="31" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A31">
+      <c r="A31" s="1">
         <v>30</v>
       </c>
-      <c r="B31" t="s">
+      <c r="B31" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="C31">
+      <c r="C31" s="1">
         <v>4</v>
       </c>
-      <c r="D31" t="s">
+      <c r="D31" s="1" t="s">
         <v>8</v>
       </c>
     </row>
@@ -1389,30 +1396,30 @@
       </c>
     </row>
     <row r="33" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A33">
+      <c r="A33" s="1">
         <v>32</v>
       </c>
-      <c r="B33" t="s">
+      <c r="B33" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="C33">
+      <c r="C33" s="1">
         <v>5</v>
       </c>
-      <c r="D33" t="s">
+      <c r="D33" s="1" t="s">
         <v>6</v>
       </c>
     </row>
     <row r="34" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A34">
+      <c r="A34" s="1">
         <v>33</v>
       </c>
-      <c r="B34" t="s">
+      <c r="B34" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="C34" t="s">
+      <c r="C34" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="D34" t="s">
+      <c r="D34" s="1" t="s">
         <v>4</v>
       </c>
     </row>
@@ -1431,16 +1438,16 @@
       </c>
     </row>
     <row r="36" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A36">
+      <c r="A36" s="3">
         <v>35</v>
       </c>
-      <c r="B36" t="s">
+      <c r="B36" s="3" t="s">
         <v>11</v>
       </c>
-      <c r="C36" t="s">
+      <c r="C36" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="D36" t="s">
+      <c r="D36" s="3" t="s">
         <v>7</v>
       </c>
     </row>

--- a/lab3/car/car_tests/Cases.xlsx
+++ b/lab3/car/car_tests/Cases.xlsx
@@ -935,8 +935,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:D37"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A7" workbookViewId="0">
-      <selection activeCell="A18" sqref="A18:D18"/>
+    <sheetView tabSelected="1" topLeftCell="A13" workbookViewId="0">
+      <selection activeCell="D30" sqref="D30"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -976,30 +976,30 @@
       </c>
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A3">
+      <c r="A3" s="1">
         <v>2</v>
       </c>
-      <c r="B3" t="s">
+      <c r="B3" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="C3">
+      <c r="C3" s="1">
         <v>-1</v>
       </c>
-      <c r="D3" t="s">
+      <c r="D3" s="1" t="s">
         <v>6</v>
       </c>
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A4">
+      <c r="A4" s="1">
         <v>3</v>
       </c>
-      <c r="B4" t="s">
+      <c r="B4" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="C4">
+      <c r="C4" s="1">
         <v>0</v>
       </c>
-      <c r="D4" t="s">
+      <c r="D4" s="1" t="s">
         <v>4</v>
       </c>
     </row>
@@ -1032,16 +1032,16 @@
       </c>
     </row>
     <row r="7" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A7">
+      <c r="A7" s="1">
         <v>6</v>
       </c>
-      <c r="B7" t="s">
+      <c r="B7" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="C7">
+      <c r="C7" s="1">
         <v>1</v>
       </c>
-      <c r="D7" t="s">
+      <c r="D7" s="1" t="s">
         <v>8</v>
       </c>
     </row>
@@ -1144,31 +1144,31 @@
       </c>
     </row>
     <row r="15" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A15">
+      <c r="A15" s="1">
         <v>14</v>
       </c>
-      <c r="B15" t="s">
+      <c r="B15" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="C15">
+      <c r="C15" s="1">
         <v>5</v>
       </c>
-      <c r="D15" t="s">
+      <c r="D15" s="1" t="s">
         <v>8</v>
       </c>
     </row>
     <row r="16" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A16">
+      <c r="A16" s="1">
         <v>15</v>
       </c>
-      <c r="B16" t="s">
+      <c r="B16" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="C16" t="s">
+      <c r="C16" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="D16" t="s">
-        <v>7</v>
+      <c r="D16" s="1" t="s">
+        <v>4</v>
       </c>
     </row>
     <row r="17" spans="1:4" x14ac:dyDescent="0.25">
@@ -1200,16 +1200,16 @@
       </c>
     </row>
     <row r="19" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A19">
+      <c r="A19" s="1">
         <v>18</v>
       </c>
-      <c r="B19" t="s">
+      <c r="B19" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="C19" t="s">
+      <c r="C19" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="D19" t="s">
+      <c r="D19" s="1" t="s">
         <v>6</v>
       </c>
     </row>
@@ -1228,30 +1228,30 @@
       </c>
     </row>
     <row r="21" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A21">
+      <c r="A21" s="1">
         <v>20</v>
       </c>
-      <c r="B21" t="s">
+      <c r="B21" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="C21">
+      <c r="C21" s="1">
         <v>-1</v>
       </c>
-      <c r="D21" t="s">
+      <c r="D21" s="1" t="s">
         <v>8</v>
       </c>
     </row>
     <row r="22" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A22">
+      <c r="A22" s="3">
         <v>21</v>
       </c>
-      <c r="B22" t="s">
+      <c r="B22" s="3" t="s">
         <v>12</v>
       </c>
-      <c r="C22">
+      <c r="C22" s="3">
         <v>0</v>
       </c>
-      <c r="D22" t="s">
+      <c r="D22" s="3" t="s">
         <v>7</v>
       </c>
     </row>
@@ -1312,16 +1312,16 @@
       </c>
     </row>
     <row r="27" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A27">
+      <c r="A27" s="1">
         <v>26</v>
       </c>
-      <c r="B27" t="s">
+      <c r="B27" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="C27">
+      <c r="C27" s="1">
         <v>2</v>
       </c>
-      <c r="D27" t="s">
+      <c r="D27" s="1" t="s">
         <v>6</v>
       </c>
     </row>
@@ -1340,30 +1340,30 @@
       </c>
     </row>
     <row r="29" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A29">
+      <c r="A29" s="1">
         <v>28</v>
       </c>
-      <c r="B29" t="s">
+      <c r="B29" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="C29">
+      <c r="C29" s="1">
         <v>3</v>
       </c>
-      <c r="D29" t="s">
+      <c r="D29" s="1" t="s">
         <v>8</v>
       </c>
     </row>
     <row r="30" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A30">
+      <c r="A30" s="1">
         <v>29</v>
       </c>
-      <c r="B30" t="s">
+      <c r="B30" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="C30">
+      <c r="C30" s="1">
         <v>4</v>
       </c>
-      <c r="D30" t="s">
+      <c r="D30" s="1" t="s">
         <v>7</v>
       </c>
     </row>
@@ -1382,16 +1382,16 @@
       </c>
     </row>
     <row r="32" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A32">
+      <c r="A32" s="1">
         <v>31</v>
       </c>
-      <c r="B32" t="s">
+      <c r="B32" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="C32">
+      <c r="C32" s="1">
         <v>5</v>
       </c>
-      <c r="D32" t="s">
+      <c r="D32" s="1" t="s">
         <v>4</v>
       </c>
     </row>
@@ -1424,16 +1424,16 @@
       </c>
     </row>
     <row r="35" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A35">
+      <c r="A35" s="1">
         <v>34</v>
       </c>
-      <c r="B35" t="s">
+      <c r="B35" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="C35" t="s">
+      <c r="C35" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="D35" t="s">
+      <c r="D35" s="1" t="s">
         <v>6</v>
       </c>
     </row>
@@ -1452,16 +1452,16 @@
       </c>
     </row>
     <row r="37" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A37">
+      <c r="A37" s="1">
         <v>36</v>
       </c>
-      <c r="B37" t="s">
+      <c r="B37" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="C37" t="s">
+      <c r="C37" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="D37" t="s">
+      <c r="D37" s="1" t="s">
         <v>8</v>
       </c>
     </row>
